--- a/spring-unity/src/main/resources/templates/excel/UserInfoTemp.xlsx
+++ b/spring-unity/src/main/resources/templates/excel/UserInfoTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zx\IdeaProjects\demo\spring-unity\src\main\resources\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zx\IdeaProjects\demo\spring-unity\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3DEF32-F5DA-4982-9F36-B15B522B481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AF6C29-0F01-48BA-AF10-7ADE41EAF2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>导出日期：{date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,10 @@
   </si>
   <si>
     <t>{.income}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出时间：{date}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,52 +451,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
